--- a/i_codebooks/D4_persontime_ImmDis.xlsx
+++ b/i_codebooks/D4_persontime_ImmDis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>metadata_content</t>
   </si>
@@ -195,13 +195,7 @@
     <t>D4_persontime_{ImmDis}</t>
   </si>
   <si>
-    <t>Strata of age and gender</t>
-  </si>
-  <si>
     <t>character</t>
-  </si>
-  <si>
-    <t>Persontime in the follow up of {ImmDis}, with flares, per strata of gender and age. Use CountPersonTime on D3_followup_periods_in_cohort_{ImmDis} and D3_flares_{ImmDis}, with birth date from D3_PERSONS to create the strata oif ageband</t>
   </si>
   <si>
     <t>ageband</t>
@@ -245,7 +239,28 @@
     <t>personyears_{ImmDis}</t>
   </si>
   <si>
-    <t xml:space="preserve">Person years in D3_followup_periods_in_cohort_{ImmDis} </t>
+    <t>n_</t>
+  </si>
+  <si>
+    <t>Persontime in the follow up of {ImmDis}, with 1st, 2nd, and 3rd flares, per strata of gender and age. Use CountPersonTime on D3_followup_periods_in_cohort_{ImmDis} and D3_flares_{ImmDis}, with birth date from D3_PERSONS to create the strata oif ageband</t>
+  </si>
+  <si>
+    <t>Strata of age and gender, per each flare among 1st, 2nd and 3rd</t>
+  </si>
+  <si>
+    <t>number_of_period_{ImmDis}</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>from D3_followup_periods_in_cohort_{ImmDis} , restricted to 1, 2 and 3</t>
+  </si>
+  <si>
+    <t>Person years in D3_followup_periods_in_cohort_{ImmDis} in this stratum</t>
   </si>
 </sst>
 </file>
@@ -349,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,6 +400,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -668,7 +689,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,13 +778,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,65 +839,98 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="69" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="9" t="s">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="I5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1071,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,15 +1143,17 @@
         <v>50</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,7 +1161,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="15">
         <v>584</v>
@@ -1119,7 +1175,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="15">
         <v>546</v>
@@ -1130,10 +1186,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="15">
         <v>2</v>
@@ -1147,7 +1203,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="16">
         <v>5473</v>
@@ -1161,7 +1217,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="16">
         <v>7651</v>
@@ -1172,10 +1228,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="16">
         <v>21</v>
@@ -1189,7 +1245,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="15">
         <v>8765</v>
@@ -1203,7 +1259,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="15">
         <v>9543</v>
@@ -1214,10 +1270,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="C10" s="15">
         <v>123</v>
